--- a/projects/autogeneration_calibration_prototype-LargeOffice.xlsx
+++ b/projects/autogeneration_calibration_prototype-LargeOffice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$129</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2722" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="893">
   <si>
     <t>type</t>
   </si>
@@ -2019,18 +2019,6 @@
     <t>thermal_mass_mult</t>
   </si>
   <si>
-    <t>Change Exterior Wall Thermal Properties</t>
-  </si>
-  <si>
-    <t>ChangeExteriorWallThermalProperties</t>
-  </si>
-  <si>
-    <t>Change Roof Thermal Properties</t>
-  </si>
-  <si>
-    <t>ChangeRoofThermalProperties</t>
-  </si>
-  <si>
     <t>Roof total R-value multiplier</t>
   </si>
   <si>
@@ -2169,270 +2157,39 @@
     <t>Calibration Reports Enhanced 21</t>
   </si>
   <si>
-    <t>CalibrationReportsEnhanced21.electricity_consumption_modeled</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced21.natural_gas_consumption_modeled</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced21.electricity_rmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced21.natural_gas_rmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced21.electricity_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced21.electricity_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced21.natural_gas_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced21.natural_gas_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced21.electricity_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced21.electricity_nmbe_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced21.natural_gas_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced21.natural_gas_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>Building Area</t>
   </si>
   <si>
-    <t>OpenStudioResults.total_building_area</t>
-  </si>
-  <si>
     <t>m2</t>
   </si>
   <si>
     <t>Total Electricity Use (kWh)</t>
   </si>
   <si>
-    <t>OpenStudioResults.electricity_ip</t>
-  </si>
-  <si>
     <t>Total Gas Use (MBtu)</t>
   </si>
   <si>
-    <t>OpenStudioResults.natural_gas_ip</t>
-  </si>
-  <si>
     <t>MBtu</t>
   </si>
   <si>
     <t>Unmet Cooling Hours</t>
   </si>
   <si>
-    <t>OpenStudioResults.time_setpoint_not_met_during_occupied_cooling</t>
-  </si>
-  <si>
     <t>hrs</t>
   </si>
   <si>
     <t>Unmet Heating Hours</t>
   </si>
   <si>
-    <t>OpenStudioResults.time_setpoint_not_met_during_occupied_heating</t>
-  </si>
-  <si>
     <t>Total Unmet Hours</t>
   </si>
   <si>
-    <t>OpenStudioResults.time_setpoint_not_met_during_occupied_hours</t>
-  </si>
-  <si>
     <t>OpenStudio Results</t>
   </si>
   <si>
     <t>OpenStudioResults</t>
   </si>
   <si>
-    <t>Change Lighting Loads by Percentage</t>
-  </si>
-  <si>
-    <t>ChangeLightingLoadsByPercentage</t>
-  </si>
-  <si>
-    <t>Lighting Power (% CHG)</t>
-  </si>
-  <si>
-    <t>lighting_power_change_percent</t>
-  </si>
-  <si>
-    <t>Change Electric Equipment Loads by Percentage</t>
-  </si>
-  <si>
-    <t>ChangeElectricEquipmentLoadsByPercentage</t>
-  </si>
-  <si>
-    <t>Electric Equipment Power (% CHG)</t>
-  </si>
-  <si>
-    <t>elecequip_power_change_percent</t>
-  </si>
-  <si>
-    <t>Modify Internal Mass Area</t>
-  </si>
-  <si>
-    <t>modify_internal_mass_area</t>
-  </si>
-  <si>
-    <t>ModifyInternalMassArea</t>
-  </si>
-  <si>
-    <t>Thermal Mass Area (Multiplier)</t>
-  </si>
-  <si>
-    <t>area_multiplier</t>
-  </si>
-  <si>
-    <t>Set Occupancy</t>
-  </si>
-  <si>
-    <t>set_occupancy</t>
-  </si>
-  <si>
-    <t>SetOccupancy</t>
-  </si>
-  <si>
-    <t>Zone Name</t>
-  </si>
-  <si>
-    <t>zone_name</t>
-  </si>
-  <si>
-    <t>Seatorium</t>
-  </si>
-  <si>
-    <t>Calculation Method</t>
-  </si>
-  <si>
-    <t>calculation_method</t>
-  </si>
-  <si>
-    <t>People</t>
-  </si>
-  <si>
-    <t>Number of People</t>
-  </si>
-  <si>
-    <t>people_value</t>
-  </si>
-  <si>
-    <t>Change Parameters Of Material deck</t>
-  </si>
-  <si>
-    <t>change_parameters_of_material</t>
-  </si>
-  <si>
-    <t>ChangeParametersOfMaterial</t>
-  </si>
-  <si>
-    <t>Choose a Construction to Alter</t>
-  </si>
-  <si>
-    <t>mpact - floor</t>
-  </si>
-  <si>
-    <t>Thickness Deck (m)</t>
-  </si>
-  <si>
-    <t>thickness</t>
-  </si>
-  <si>
-    <t>Density Deck (kg/m3)</t>
-  </si>
-  <si>
-    <t>density</t>
-  </si>
-  <si>
-    <t>Thermal Absorptance Deck</t>
-  </si>
-  <si>
-    <t>thermal_absorptance</t>
-  </si>
-  <si>
-    <t>Solar Absorptance Deck</t>
-  </si>
-  <si>
-    <t>solar_absorptance</t>
-  </si>
-  <si>
-    <t>Visisble Absorptance Deck</t>
-  </si>
-  <si>
-    <t>visible_absorptance</t>
-  </si>
-  <si>
-    <t>Thermal Conductivity Deck (W/m-K)</t>
-  </si>
-  <si>
-    <t>thermal_conductivity</t>
-  </si>
-  <si>
-    <t>Specific Heat Deck (J/kg-K)</t>
-  </si>
-  <si>
-    <t>specific_heat</t>
-  </si>
-  <si>
-    <t>Change Parameters Of Material hull</t>
-  </si>
-  <si>
-    <t>mpact - hull</t>
-  </si>
-  <si>
-    <t>Thickness Hull (m)</t>
-  </si>
-  <si>
-    <t>Density Hull (kg/m3)</t>
-  </si>
-  <si>
-    <t>Thermal Absorptance Hull</t>
-  </si>
-  <si>
-    <t>Solar Absorptance Hull</t>
-  </si>
-  <si>
-    <t>Visisble Absorptance</t>
-  </si>
-  <si>
-    <t>Thermal Conductivity Hull (W/m-K)</t>
-  </si>
-  <si>
-    <t>Specific Heat Hull (J/kg-K)</t>
-  </si>
-  <si>
-    <t>Insulation Thickness hull</t>
-  </si>
-  <si>
-    <t>change_r_value_of_insulation_for_construction_by_a_specified_percentage</t>
-  </si>
-  <si>
-    <t>ChangeRValueOfInsulationForConstructionByASpecifiedPercentage</t>
-  </si>
-  <si>
-    <t>R-value Hull (% CHG)</t>
-  </si>
-  <si>
-    <t>r_value_prct_inc</t>
-  </si>
-  <si>
-    <t>Change Run Period</t>
-  </si>
-  <si>
-    <t>ChangeRunPeriod</t>
-  </si>
-  <si>
     <t>ChangeBuildingLocation</t>
   </si>
   <si>
@@ -2460,33 +2217,6 @@
     <t>HVAC System Type</t>
   </si>
   <si>
-    <t>General Space Type Calibration Measure</t>
-  </si>
-  <si>
-    <t>general_space_type_calibration_measure</t>
-  </si>
-  <si>
-    <t>GeneralSpaceTypeCalibrationMeasure</t>
-  </si>
-  <si>
-    <t>Occupancy Multiplier</t>
-  </si>
-  <si>
-    <t>multiplier_occ</t>
-  </si>
-  <si>
-    <t>Ventilation Multiplier</t>
-  </si>
-  <si>
-    <t>multiplier_ventilation</t>
-  </si>
-  <si>
-    <t>Infiltration Multiplier</t>
-  </si>
-  <si>
-    <t>multiplier_infiltration</t>
-  </si>
-  <si>
     <t>SmallOffice</t>
   </si>
   <si>
@@ -2887,13 +2617,115 @@
   </si>
   <si>
     <t>../lib</t>
+  </si>
+  <si>
+    <t>GeneralCalibrationMeasureMultiplier</t>
+  </si>
+  <si>
+    <t>*All SpaceTypes*</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>*None*</t>
+  </si>
+  <si>
+    <t>Lights_multiplier</t>
+  </si>
+  <si>
+    <t>Luminaire_multiplier</t>
+  </si>
+  <si>
+    <t>ElectricEquipment_multiplier</t>
+  </si>
+  <si>
+    <t>GasEquipment_multiplier</t>
+  </si>
+  <si>
+    <t>OtherEquipment_multiplier</t>
+  </si>
+  <si>
+    <t>People_multiplier</t>
+  </si>
+  <si>
+    <t>InternalMass_multiplier</t>
+  </si>
+  <si>
+    <t>Infiltration_multiplier</t>
+  </si>
+  <si>
+    <t>Ventilation_multiplier</t>
+  </si>
+  <si>
+    <t>RoofThermalPropertiesMultiplier</t>
+  </si>
+  <si>
+    <t>ExteriorWallThermalPropertiesMultiplier</t>
+  </si>
+  <si>
+    <t>RunPeriod</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced_21.electricity_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced_21.natural_gas_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced_21.electricity_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced_21.natural_gas_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced_21.electricity_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced_21.electricity_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced_21.natural_gas_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced_21.natural_gas_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced_21.electricity_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced_21.electricity_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced_21.natural_gas_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced_21.natural_gas_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>openstudio_results.time_setpoint_not_met_during_occupied_hours</t>
+  </si>
+  <si>
+    <t>openstudio_results.total_building_area</t>
+  </si>
+  <si>
+    <t>openstudio_results.electricity_ip</t>
+  </si>
+  <si>
+    <t>openstudio_results.natural_gas_ip</t>
+  </si>
+  <si>
+    <t>openstudio_results.time_setpoint_not_met_during_occupied_cooling</t>
+  </si>
+  <si>
+    <t>openstudio_results.time_setpoint_not_met_during_occupied_heating</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2956,29 +2788,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF0000FF"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2987,7 +2801,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3044,12 +2858,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFCD5B4"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -4932,7 +4740,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -5008,14 +4816,14 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -5025,48 +4833,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7211,7 +6994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -7248,7 +7031,7 @@
         <v>434</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -7259,7 +7042,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -7270,7 +7053,7 @@
         <v>464</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>608</v>
@@ -7281,7 +7064,7 @@
         <v>465</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>467</v>
@@ -7352,7 +7135,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>942</v>
+        <v>852</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>466</v>
@@ -7363,7 +7146,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>945</v>
+        <v>855</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>634</v>
@@ -7374,7 +7157,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>634</v>
@@ -7420,7 +7203,7 @@
         <v>449</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>935</v>
+        <v>845</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7446,7 +7229,7 @@
     </row>
     <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
-        <v>936</v>
+        <v>846</v>
       </c>
       <c r="B22" s="29">
         <v>10</v>
@@ -7458,7 +7241,7 @@
     </row>
     <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
-        <v>937</v>
+        <v>847</v>
       </c>
       <c r="B23" s="29">
         <v>10</v>
@@ -7470,7 +7253,7 @@
     </row>
     <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>938</v>
+        <v>848</v>
       </c>
       <c r="B24" s="29">
         <v>1</v>
@@ -7483,20 +7266,20 @@
         <v>0</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>939</v>
+        <v>849</v>
       </c>
       <c r="C25" s="29"/>
       <c r="D25" s="32"/>
     </row>
     <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>943</v>
+        <v>853</v>
       </c>
       <c r="B26" s="28">
         <v>0</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>944</v>
+        <v>854</v>
       </c>
       <c r="D26" s="32"/>
     </row>
@@ -7534,7 +7317,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>946</v>
+        <v>856</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7562,7 +7345,7 @@
         <v>625</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>947</v>
+        <v>857</v>
       </c>
       <c r="E39" s="2"/>
     </row>
@@ -7589,7 +7372,7 @@
         <v>627</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>948</v>
+        <v>858</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7617,18 +7400,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z227"/>
+  <dimension ref="A1:Z202"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="30" customWidth="1"/>
     <col min="2" max="2" width="47" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47" style="30" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="47" style="30" customWidth="1"/>
     <col min="4" max="4" width="39.109375" style="30" customWidth="1"/>
     <col min="5" max="5" width="24.109375" style="30" customWidth="1"/>
     <col min="6" max="6" width="24.109375" style="30" hidden="1" customWidth="1"/>
@@ -7677,14 +7460,14 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="76" t="s">
+      <c r="U1" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -7720,7 +7503,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7785,103 +7568,103 @@
         <v>1</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>795</v>
+        <v>874</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>796</v>
+        <v>874</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>796</v>
+        <v>874</v>
       </c>
       <c r="E4" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-    </row>
-    <row r="5" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="53" t="s">
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+    </row>
+    <row r="5" spans="1:26" s="52" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="52" t="s">
         <v>649</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="52" t="s">
         <v>650</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="52" t="s">
         <v>648</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="53" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="52" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="52" t="s">
         <v>651</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="52" t="s">
         <v>652</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="52" t="s">
         <v>648</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" s="66" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="64" t="b">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="B7" s="64" t="s">
-        <v>797</v>
-      </c>
-      <c r="C7" s="64" t="s">
-        <v>797</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>797</v>
-      </c>
-      <c r="E7" s="64" t="s">
+      <c r="B7" s="53" t="s">
+        <v>716</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>716</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>716</v>
+      </c>
+      <c r="E7" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="64"/>
-      <c r="Z7" s="64"/>
-    </row>
-    <row r="8" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+    </row>
+    <row r="8" spans="1:26" s="52" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="42"/>
       <c r="B8" s="37" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="42" t="s">
-        <v>798</v>
+        <v>717</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>799</v>
+        <v>718</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="42" t="s">
@@ -7889,16 +7672,16 @@
       </c>
       <c r="H8" s="42"/>
       <c r="I8" s="42" t="s">
-        <v>802</v>
+        <v>721</v>
       </c>
       <c r="J8" s="42"/>
       <c r="K8" s="42"/>
       <c r="L8" s="42"/>
       <c r="M8" s="42"/>
       <c r="N8" s="42"/>
-      <c r="O8" s="67"/>
+      <c r="O8" s="56"/>
       <c r="P8" s="42"/>
-      <c r="Q8" s="67"/>
+      <c r="Q8" s="56"/>
       <c r="R8" s="42"/>
       <c r="S8" s="42"/>
       <c r="T8" s="42"/>
@@ -7916,10 +7699,10 @@
       </c>
       <c r="C9" s="37"/>
       <c r="D9" s="37" t="s">
-        <v>800</v>
+        <v>719</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>801</v>
+        <v>720</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="51" t="s">
@@ -7927,7 +7710,7 @@
       </c>
       <c r="H9" s="37"/>
       <c r="I9" s="37" t="s">
-        <v>918</v>
+        <v>828</v>
       </c>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
@@ -7952,13 +7735,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>919</v>
+        <v>829</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>920</v>
+        <v>830</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>921</v>
+        <v>831</v>
       </c>
       <c r="E10" s="34" t="s">
         <v>66</v>
@@ -7971,37 +7754,37 @@
         <v>21</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>922</v>
+        <v>832</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>923</v>
+        <v>833</v>
       </c>
       <c r="G11" s="30" t="s">
-        <v>924</v>
-      </c>
-      <c r="I11" s="75" t="s">
-        <v>941</v>
+        <v>834</v>
+      </c>
+      <c r="I11" s="62" t="s">
+        <v>851</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>925</v>
-      </c>
-      <c r="K11" s="75" t="s">
-        <v>815</v>
-      </c>
-      <c r="L11" s="75" t="s">
-        <v>815</v>
-      </c>
-      <c r="M11" s="75" t="s">
-        <v>815</v>
-      </c>
-      <c r="N11" s="75" t="s">
-        <v>815</v>
+        <v>835</v>
+      </c>
+      <c r="K11" s="62" t="s">
+        <v>725</v>
+      </c>
+      <c r="L11" s="62" t="s">
+        <v>725</v>
+      </c>
+      <c r="M11" s="62" t="s">
+        <v>725</v>
+      </c>
+      <c r="N11" s="62" t="s">
+        <v>725</v>
       </c>
       <c r="P11" s="30" t="s">
-        <v>940</v>
+        <v>850</v>
       </c>
       <c r="R11" s="30" t="s">
-        <v>926</v>
+        <v>836</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
@@ -8009,37 +7792,37 @@
         <v>21</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>927</v>
+        <v>837</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>851</v>
+        <v>761</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>924</v>
+        <v>834</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>853</v>
+        <v>763</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>928</v>
+        <v>838</v>
       </c>
       <c r="K12" s="30" t="s">
-        <v>853</v>
+        <v>763</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>853</v>
+        <v>763</v>
       </c>
       <c r="M12" s="30" t="s">
-        <v>853</v>
+        <v>763</v>
       </c>
       <c r="N12" s="30" t="s">
-        <v>853</v>
+        <v>763</v>
       </c>
       <c r="P12" s="30" t="s">
-        <v>929</v>
+        <v>839</v>
       </c>
       <c r="R12" s="30" t="s">
-        <v>926</v>
+        <v>836</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
@@ -8047,93 +7830,93 @@
         <v>21</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>930</v>
+        <v>840</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>801</v>
+        <v>720</v>
       </c>
       <c r="G13" s="30" t="s">
-        <v>924</v>
+        <v>834</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>934</v>
+        <v>844</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>931</v>
+        <v>841</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>932</v>
+        <v>842</v>
       </c>
       <c r="L13" s="38" t="s">
-        <v>932</v>
+        <v>842</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>932</v>
+        <v>842</v>
       </c>
       <c r="N13" s="38" t="s">
-        <v>932</v>
+        <v>842</v>
       </c>
       <c r="P13" s="38" t="s">
-        <v>933</v>
+        <v>843</v>
       </c>
       <c r="R13" s="30" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" s="74" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="B14" s="72" t="s">
-        <v>803</v>
-      </c>
-      <c r="C14" s="72" t="s">
-        <v>917</v>
-      </c>
-      <c r="D14" s="72" t="s">
-        <v>804</v>
-      </c>
-      <c r="E14" s="71" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="61" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="58" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>827</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>723</v>
+      </c>
+      <c r="E14" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="71"/>
-      <c r="Y14" s="71"/>
-      <c r="Z14" s="71"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
     </row>
     <row r="15" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>817</v>
+        <v>727</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>816</v>
+        <v>726</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="75" t="s">
-        <v>815</v>
+      <c r="I15" s="62" t="s">
+        <v>725</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -8149,10 +7932,10 @@
         <v>21</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>819</v>
+        <v>729</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>818</v>
+        <v>728</v>
       </c>
       <c r="G16" s="30" t="s">
         <v>620</v>
@@ -8172,17 +7955,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>821</v>
+        <v>731</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>820</v>
+        <v>730</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="75" t="s">
-        <v>815</v>
+      <c r="I17" s="62" t="s">
+        <v>725</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -8198,10 +7981,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>823</v>
+        <v>733</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>822</v>
+        <v>732</v>
       </c>
       <c r="G18" s="30" t="s">
         <v>611</v>
@@ -8221,10 +8004,10 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>824</v>
+        <v>734</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>825</v>
+        <v>735</v>
       </c>
       <c r="G19" s="30" t="s">
         <v>620</v>
@@ -8244,17 +8027,17 @@
         <v>21</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>827</v>
+        <v>737</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>826</v>
+        <v>736</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="I20" s="75" t="s">
-        <v>815</v>
+      <c r="I20" s="62" t="s">
+        <v>725</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -8270,10 +8053,10 @@
         <v>21</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>831</v>
+        <v>741</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>830</v>
+        <v>740</v>
       </c>
       <c r="G21" s="30" t="s">
         <v>611</v>
@@ -8293,10 +8076,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>829</v>
+        <v>739</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>828</v>
+        <v>738</v>
       </c>
       <c r="G22" s="30" t="s">
         <v>620</v>
@@ -8316,17 +8099,17 @@
         <v>21</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>833</v>
+        <v>743</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>832</v>
+        <v>742</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="75" t="s">
-        <v>815</v>
+      <c r="I23" s="62" t="s">
+        <v>725</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -8342,10 +8125,10 @@
         <v>21</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>836</v>
+        <v>746</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>834</v>
+        <v>744</v>
       </c>
       <c r="G24" s="30" t="s">
         <v>611</v>
@@ -8365,10 +8148,10 @@
         <v>21</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>837</v>
+        <v>747</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>835</v>
+        <v>745</v>
       </c>
       <c r="G25" s="30" t="s">
         <v>620</v>
@@ -8388,16 +8171,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>839</v>
+        <v>749</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>838</v>
+        <v>748</v>
       </c>
       <c r="G26" s="30" t="s">
         <v>611</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>840</v>
+        <v>750</v>
       </c>
       <c r="I26" s="4">
         <v>53628</v>
@@ -8414,16 +8197,16 @@
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>842</v>
+        <v>752</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>841</v>
+        <v>751</v>
       </c>
       <c r="G27" s="30" t="s">
         <v>611</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>843</v>
+        <v>753</v>
       </c>
       <c r="I27" s="4">
         <v>0</v>
@@ -8440,10 +8223,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>845</v>
+        <v>755</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>844</v>
+        <v>754</v>
       </c>
       <c r="G28" s="30" t="s">
         <v>611</v>
@@ -8463,10 +8246,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>847</v>
+        <v>757</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>846</v>
+        <v>756</v>
       </c>
       <c r="G29" s="30" t="s">
         <v>620</v>
@@ -8486,16 +8269,16 @@
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>849</v>
+        <v>759</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>848</v>
+        <v>758</v>
       </c>
       <c r="G30" s="30" t="s">
         <v>611</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>850</v>
+        <v>760</v>
       </c>
       <c r="I30" s="4">
         <v>0</v>
@@ -8512,17 +8295,17 @@
         <v>21</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>852</v>
+        <v>762</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>851</v>
+        <v>761</v>
       </c>
       <c r="F31" s="29"/>
       <c r="G31" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="I31" s="75" t="s">
-        <v>853</v>
+      <c r="I31" s="62" t="s">
+        <v>763</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -8538,7 +8321,7 @@
         <v>21</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>854</v>
+        <v>764</v>
       </c>
       <c r="E32" s="30" t="s">
         <v>198</v>
@@ -8561,7 +8344,7 @@
         <v>21</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>855</v>
+        <v>765</v>
       </c>
       <c r="E33" s="30" t="s">
         <v>75</v>
@@ -8584,10 +8367,10 @@
         <v>21</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>857</v>
+        <v>767</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>856</v>
+        <v>766</v>
       </c>
       <c r="G34" s="30" t="s">
         <v>611</v>
@@ -8607,10 +8390,10 @@
         <v>21</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>859</v>
+        <v>769</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>858</v>
+        <v>768</v>
       </c>
       <c r="G35" s="30" t="s">
         <v>620</v>
@@ -8630,10 +8413,10 @@
         <v>21</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>865</v>
+        <v>775</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>860</v>
+        <v>770</v>
       </c>
       <c r="G36" s="30" t="s">
         <v>620</v>
@@ -8653,10 +8436,10 @@
         <v>21</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>864</v>
+        <v>774</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>861</v>
+        <v>771</v>
       </c>
       <c r="G37" s="30" t="s">
         <v>620</v>
@@ -8677,10 +8460,10 @@
         <v>21</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>863</v>
+        <v>773</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>862</v>
+        <v>772</v>
       </c>
       <c r="G38" s="30" t="s">
         <v>620</v>
@@ -8701,10 +8484,10 @@
         <v>21</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>867</v>
+        <v>777</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>866</v>
+        <v>776</v>
       </c>
       <c r="F39" s="42"/>
       <c r="G39" s="30" t="s">
@@ -8725,10 +8508,10 @@
         <v>21</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>869</v>
+        <v>779</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>868</v>
+        <v>778</v>
       </c>
       <c r="F40" s="42"/>
       <c r="G40" s="30" t="s">
@@ -8749,17 +8532,17 @@
         <v>21</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>871</v>
+        <v>781</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>870</v>
+        <v>780</v>
       </c>
       <c r="F41" s="29"/>
       <c r="G41" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="I41" s="75" t="s">
-        <v>872</v>
+      <c r="I41" s="62" t="s">
+        <v>782</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -8776,17 +8559,17 @@
         <v>21</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>874</v>
+        <v>784</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>873</v>
+        <v>783</v>
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="I42" s="75" t="s">
-        <v>875</v>
+      <c r="I42" s="62" t="s">
+        <v>785</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -8803,10 +8586,10 @@
         <v>21</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>877</v>
+        <v>787</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>876</v>
+        <v>786</v>
       </c>
       <c r="F43" s="42"/>
       <c r="G43" s="30" t="s">
@@ -8821,60 +8604,60 @@
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:26" s="74" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="B44" s="72" t="s">
-        <v>878</v>
-      </c>
-      <c r="C44" s="72" t="s">
-        <v>916</v>
-      </c>
-      <c r="D44" s="72" t="s">
-        <v>879</v>
-      </c>
-      <c r="E44" s="71" t="s">
+    <row r="44" spans="1:26" s="61" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="58" t="b">
+        <v>0</v>
+      </c>
+      <c r="B44" s="59" t="s">
+        <v>788</v>
+      </c>
+      <c r="C44" s="59" t="s">
+        <v>826</v>
+      </c>
+      <c r="D44" s="59" t="s">
+        <v>789</v>
+      </c>
+      <c r="E44" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="73"/>
-      <c r="L44" s="73"/>
-      <c r="M44" s="73"/>
-      <c r="N44" s="73"/>
-      <c r="O44" s="73"/>
-      <c r="P44" s="73"/>
-      <c r="Q44" s="73"/>
-      <c r="R44" s="71"/>
-      <c r="S44" s="71"/>
-      <c r="T44" s="71"/>
-      <c r="U44" s="71"/>
-      <c r="V44" s="71"/>
-      <c r="W44" s="71"/>
-      <c r="X44" s="71"/>
-      <c r="Y44" s="71"/>
-      <c r="Z44" s="71"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="60"/>
+      <c r="O44" s="60"/>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="60"/>
+      <c r="R44" s="58"/>
+      <c r="S44" s="58"/>
+      <c r="T44" s="58"/>
+      <c r="U44" s="58"/>
+      <c r="V44" s="58"/>
+      <c r="W44" s="58"/>
+      <c r="X44" s="58"/>
+      <c r="Y44" s="58"/>
+      <c r="Z44" s="58"/>
     </row>
     <row r="45" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="B45" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>852</v>
+        <v>762</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>851</v>
+        <v>761</v>
       </c>
       <c r="F45" s="29"/>
       <c r="G45" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="I45" s="75" t="s">
-        <v>853</v>
+      <c r="I45" s="62" t="s">
+        <v>763</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -8890,17 +8673,17 @@
         <v>21</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>805</v>
+        <v>724</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>880</v>
+        <v>790</v>
       </c>
       <c r="F46" s="29"/>
       <c r="G46" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="I46" s="75" t="s">
-        <v>881</v>
+      <c r="I46" s="62" t="s">
+        <v>791</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -8916,17 +8699,17 @@
         <v>21</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>883</v>
+        <v>793</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>882</v>
+        <v>792</v>
       </c>
       <c r="F47" s="29"/>
       <c r="G47" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="I47" s="75" t="s">
-        <v>884</v>
+      <c r="I47" s="62" t="s">
+        <v>794</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -8942,17 +8725,17 @@
         <v>21</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>886</v>
+        <v>796</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>885</v>
+        <v>795</v>
       </c>
       <c r="F48" s="29"/>
       <c r="G48" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="I48" s="75" t="s">
-        <v>887</v>
+      <c r="I48" s="62" t="s">
+        <v>797</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -8968,17 +8751,17 @@
         <v>21</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>889</v>
+        <v>799</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>888</v>
+        <v>798</v>
       </c>
       <c r="F49" s="29"/>
       <c r="G49" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="I49" s="75" t="s">
-        <v>686</v>
+      <c r="I49" s="62" t="s">
+        <v>682</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -8994,17 +8777,17 @@
         <v>21</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>891</v>
+        <v>801</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>890</v>
+        <v>800</v>
       </c>
       <c r="F50" s="29"/>
       <c r="G50" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="I50" s="75" t="s">
-        <v>892</v>
+      <c r="I50" s="62" t="s">
+        <v>802</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -9021,17 +8804,17 @@
         <v>21</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>894</v>
+        <v>804</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>893</v>
+        <v>803</v>
       </c>
       <c r="F51" s="29"/>
       <c r="G51" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="I51" s="75" t="s">
-        <v>895</v>
+      <c r="I51" s="62" t="s">
+        <v>805</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
@@ -9048,10 +8831,10 @@
         <v>21</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>897</v>
+        <v>807</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>896</v>
+        <v>806</v>
       </c>
       <c r="F52" s="42"/>
       <c r="G52" s="30" t="s">
@@ -9072,10 +8855,10 @@
         <v>21</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>899</v>
+        <v>809</v>
       </c>
       <c r="E53" s="30" t="s">
-        <v>898</v>
+        <v>808</v>
       </c>
       <c r="F53" s="42"/>
       <c r="G53" s="30" t="s">
@@ -9096,10 +8879,10 @@
         <v>21</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>901</v>
+        <v>811</v>
       </c>
       <c r="E54" s="30" t="s">
-        <v>900</v>
+        <v>810</v>
       </c>
       <c r="F54" s="42"/>
       <c r="G54" s="30" t="s">
@@ -9120,10 +8903,10 @@
         <v>21</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>903</v>
+        <v>813</v>
       </c>
       <c r="E55" s="30" t="s">
-        <v>902</v>
+        <v>812</v>
       </c>
       <c r="F55" s="42"/>
       <c r="G55" s="30" t="s">
@@ -9144,10 +8927,10 @@
         <v>21</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>907</v>
+        <v>817</v>
       </c>
       <c r="E56" s="30" t="s">
-        <v>906</v>
+        <v>816</v>
       </c>
       <c r="G56" s="30" t="s">
         <v>611</v>
@@ -9162,7 +8945,7 @@
       <c r="O56" s="3"/>
       <c r="Q56" s="36"/>
       <c r="R56" s="2" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
@@ -9171,10 +8954,10 @@
         <v>21</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>905</v>
+        <v>815</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>904</v>
+        <v>814</v>
       </c>
       <c r="F57" s="42"/>
       <c r="G57" s="30" t="s">
@@ -9195,10 +8978,10 @@
         <v>21</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>909</v>
+        <v>819</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>908</v>
+        <v>818</v>
       </c>
       <c r="F58" s="42"/>
       <c r="G58" s="30" t="s">
@@ -9219,10 +9002,10 @@
         <v>21</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>911</v>
+        <v>821</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>910</v>
+        <v>820</v>
       </c>
       <c r="F59" s="42"/>
       <c r="G59" s="30" t="s">
@@ -9243,10 +9026,10 @@
         <v>21</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>913</v>
+        <v>823</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>912</v>
+        <v>822</v>
       </c>
       <c r="F60" s="42"/>
       <c r="G60" s="30" t="s">
@@ -9267,10 +9050,10 @@
         <v>21</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>915</v>
+        <v>825</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>914</v>
+        <v>824</v>
       </c>
       <c r="F61" s="42"/>
       <c r="G61" s="30" t="s">
@@ -9290,13 +9073,13 @@
         <v>1</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>806</v>
+        <v>859</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>807</v>
+        <v>859</v>
       </c>
       <c r="D62" s="34" t="s">
-        <v>808</v>
+        <v>859</v>
       </c>
       <c r="E62" s="34" t="s">
         <v>66</v>
@@ -9306,74 +9089,54 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B63" s="30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>809</v>
+        <v>43</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>810</v>
+        <v>43</v>
       </c>
       <c r="G63" s="30" t="s">
-        <v>611</v>
-      </c>
-      <c r="I63" s="30">
-        <v>1</v>
+        <v>834</v>
+      </c>
+      <c r="I63" s="30" t="s">
+        <v>860</v>
       </c>
       <c r="J63" s="3"/>
-      <c r="K63" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="L63" s="3">
-        <v>3</v>
-      </c>
-      <c r="M63" s="3">
-        <v>1</v>
-      </c>
-      <c r="N63" s="30">
-        <f>(K63+L63)/6</f>
-        <v>0.50166666666666659</v>
-      </c>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
       <c r="O63" s="3"/>
       <c r="Q63" s="36"/>
       <c r="R63" s="2" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B64" s="30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>811</v>
+        <v>861</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>812</v>
+        <v>861</v>
       </c>
       <c r="G64" s="30" t="s">
-        <v>611</v>
-      </c>
-      <c r="I64" s="30">
-        <v>1</v>
+        <v>834</v>
+      </c>
+      <c r="I64" s="30" t="s">
+        <v>862</v>
       </c>
       <c r="J64" s="3"/>
-      <c r="K64" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="L64" s="3">
-        <v>3</v>
-      </c>
-      <c r="M64" s="3">
-        <v>1</v>
-      </c>
-      <c r="N64" s="30">
-        <f>(K64+L64)/6</f>
-        <v>0.50166666666666659</v>
-      </c>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
       <c r="O64" s="3"/>
       <c r="Q64" s="36"/>
       <c r="R64" s="2" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.3">
@@ -9381,10 +9144,10 @@
         <v>22</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>813</v>
+        <v>863</v>
       </c>
       <c r="E65" s="30" t="s">
-        <v>814</v>
+        <v>863</v>
       </c>
       <c r="G65" s="30" t="s">
         <v>611</v>
@@ -9394,249 +9157,385 @@
       </c>
       <c r="J65" s="3"/>
       <c r="K65" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L65" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M65" s="3">
         <v>1</v>
       </c>
       <c r="N65" s="30">
-        <f>(K65+L65)/6</f>
-        <v>0.50166666666666659</v>
+        <f t="shared" ref="N65:N73" si="0">(K65+L65)/6</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O65" s="3"/>
       <c r="Q65" s="36"/>
       <c r="R65" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="34" t="b">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B66" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="30" t="s">
+        <v>864</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>864</v>
+      </c>
+      <c r="G66" s="30" t="s">
+        <v>611</v>
+      </c>
+      <c r="I66" s="30">
         <v>1</v>
       </c>
-      <c r="B66" s="34" t="s">
-        <v>700</v>
-      </c>
-      <c r="C66" s="34" t="s">
-        <v>678</v>
-      </c>
-      <c r="D66" s="34" t="s">
-        <v>678</v>
-      </c>
-      <c r="E66" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3">
+        <v>2</v>
+      </c>
+      <c r="M66" s="3">
+        <v>1</v>
+      </c>
+      <c r="N66" s="30">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O66" s="3"/>
+      <c r="Q66" s="36"/>
+      <c r="R66" s="2" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B67" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>679</v>
+        <v>865</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>680</v>
-      </c>
-      <c r="F67" s="42"/>
+        <v>865</v>
+      </c>
       <c r="G67" s="30" t="s">
-        <v>648</v>
-      </c>
-      <c r="I67" s="30" t="s">
-        <v>681</v>
-      </c>
-      <c r="J67" s="30"/>
+        <v>611</v>
+      </c>
+      <c r="I67" s="30">
+        <v>1</v>
+      </c>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3">
+        <v>0</v>
+      </c>
+      <c r="L67" s="3">
+        <v>2</v>
+      </c>
+      <c r="M67" s="3">
+        <v>1</v>
+      </c>
+      <c r="N67" s="30">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O67" s="3"/>
+      <c r="Q67" s="36"/>
+      <c r="R67" s="2" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B68" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>682</v>
+        <v>866</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="F68" s="42"/>
+        <v>866</v>
+      </c>
       <c r="G68" s="30" t="s">
-        <v>648</v>
-      </c>
-      <c r="I68" s="30" t="s">
-        <v>683</v>
-      </c>
-      <c r="J68" s="30"/>
+        <v>611</v>
+      </c>
+      <c r="I68" s="30">
+        <v>1</v>
+      </c>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3">
+        <v>2</v>
+      </c>
+      <c r="M68" s="3">
+        <v>1</v>
+      </c>
+      <c r="N68" s="30">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O68" s="3"/>
+      <c r="Q68" s="36"/>
+      <c r="R68" s="2" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B69" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>684</v>
+        <v>867</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>685</v>
-      </c>
-      <c r="F69" s="42"/>
+        <v>867</v>
+      </c>
       <c r="G69" s="30" t="s">
-        <v>648</v>
-      </c>
-      <c r="I69" s="30" t="s">
-        <v>686</v>
-      </c>
-      <c r="J69" s="30"/>
+        <v>611</v>
+      </c>
+      <c r="I69" s="30">
+        <v>1</v>
+      </c>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3">
+        <v>2</v>
+      </c>
+      <c r="M69" s="3">
+        <v>1</v>
+      </c>
+      <c r="N69" s="30">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O69" s="3"/>
+      <c r="Q69" s="36"/>
+      <c r="R69" s="2" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B70" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>687</v>
+        <v>868</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="F70" s="42"/>
+        <v>868</v>
+      </c>
       <c r="G70" s="30" t="s">
-        <v>648</v>
-      </c>
-      <c r="I70" s="30" t="s">
-        <v>630</v>
-      </c>
-      <c r="J70" s="30"/>
+        <v>611</v>
+      </c>
+      <c r="I70" s="30">
+        <v>1</v>
+      </c>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>2</v>
+      </c>
+      <c r="M70" s="3">
+        <v>1</v>
+      </c>
+      <c r="N70" s="30">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O70" s="3"/>
+      <c r="Q70" s="36"/>
+      <c r="R70" s="2" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B71" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>689</v>
+        <v>869</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>690</v>
-      </c>
-      <c r="F71" s="42"/>
+        <v>869</v>
+      </c>
       <c r="G71" s="30" t="s">
-        <v>648</v>
-      </c>
-      <c r="I71" s="30" t="s">
-        <v>691</v>
-      </c>
-      <c r="J71" s="30"/>
+        <v>611</v>
+      </c>
+      <c r="I71" s="30">
+        <v>1</v>
+      </c>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3">
+        <v>2</v>
+      </c>
+      <c r="M71" s="3">
+        <v>1</v>
+      </c>
+      <c r="N71" s="30">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O71" s="3"/>
+      <c r="Q71" s="36"/>
+      <c r="R71" s="2" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B72" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>649</v>
+        <v>870</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>650</v>
-      </c>
-      <c r="F72" s="42"/>
+        <v>870</v>
+      </c>
       <c r="G72" s="30" t="s">
-        <v>648</v>
-      </c>
-      <c r="I72" s="38" t="s">
-        <v>671</v>
-      </c>
-      <c r="J72" s="30"/>
+        <v>611</v>
+      </c>
+      <c r="I72" s="30">
+        <v>1</v>
+      </c>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3">
+        <v>2</v>
+      </c>
+      <c r="M72" s="3">
+        <v>1</v>
+      </c>
+      <c r="N72" s="30">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O72" s="3"/>
+      <c r="Q72" s="36"/>
+      <c r="R72" s="2" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B73" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>651</v>
+        <v>871</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>652</v>
-      </c>
-      <c r="F73" s="42"/>
+        <v>871</v>
+      </c>
       <c r="G73" s="30" t="s">
-        <v>648</v>
-      </c>
-      <c r="I73" s="38" t="s">
-        <v>672</v>
-      </c>
-      <c r="J73" s="30"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B74" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="30" t="s">
-        <v>692</v>
-      </c>
-      <c r="E74" s="30" t="s">
-        <v>693</v>
-      </c>
-      <c r="F74" s="42"/>
-      <c r="G74" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I74" s="38" t="s">
-        <v>694</v>
-      </c>
-      <c r="J74" s="30"/>
+        <v>611</v>
+      </c>
+      <c r="I73" s="30">
+        <v>1</v>
+      </c>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3">
+        <v>2</v>
+      </c>
+      <c r="M73" s="3">
+        <v>1</v>
+      </c>
+      <c r="N73" s="30">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O73" s="3"/>
+      <c r="Q73" s="36"/>
+      <c r="R73" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>696</v>
+      </c>
+      <c r="C74" s="34" t="s">
+        <v>674</v>
+      </c>
+      <c r="D74" s="34" t="s">
+        <v>674</v>
+      </c>
+      <c r="E74" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H74" s="35"/>
+      <c r="I74" s="35"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B75" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>702</v>
+        <v>675</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>703</v>
+        <v>676</v>
       </c>
       <c r="F75" s="42"/>
       <c r="G75" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I75" s="38" t="s">
-        <v>694</v>
+        <v>648</v>
+      </c>
+      <c r="I75" s="30" t="s">
+        <v>677</v>
       </c>
       <c r="J75" s="30"/>
     </row>
-    <row r="76" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="B76" s="34" t="s">
-        <v>701</v>
-      </c>
-      <c r="C76" s="34" t="s">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B76" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="30" t="s">
         <v>678</v>
       </c>
-      <c r="D76" s="34" t="s">
-        <v>678</v>
-      </c>
-      <c r="E76" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
+      <c r="E76" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="F76" s="42"/>
+      <c r="G76" s="30" t="s">
+        <v>648</v>
+      </c>
+      <c r="I76" s="30" t="s">
+        <v>679</v>
+      </c>
+      <c r="J76" s="30"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B77" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D77" s="30" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E77" s="30" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F77" s="42"/>
       <c r="G77" s="30" t="s">
         <v>648</v>
       </c>
       <c r="I77" s="30" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="J77" s="30"/>
     </row>
@@ -9645,17 +9544,17 @@
         <v>21</v>
       </c>
       <c r="D78" s="30" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E78" s="30" t="s">
-        <v>164</v>
+        <v>684</v>
       </c>
       <c r="F78" s="42"/>
       <c r="G78" s="30" t="s">
         <v>648</v>
       </c>
       <c r="I78" s="30" t="s">
-        <v>696</v>
+        <v>630</v>
       </c>
       <c r="J78" s="30"/>
     </row>
@@ -9664,17 +9563,17 @@
         <v>21</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E79" s="30" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F79" s="42"/>
       <c r="G79" s="30" t="s">
         <v>648</v>
       </c>
       <c r="I79" s="30" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="J79" s="30"/>
     </row>
@@ -9683,17 +9582,17 @@
         <v>21</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>687</v>
+        <v>649</v>
       </c>
       <c r="E80" s="30" t="s">
-        <v>688</v>
+        <v>650</v>
       </c>
       <c r="F80" s="42"/>
       <c r="G80" s="30" t="s">
         <v>648</v>
       </c>
-      <c r="I80" s="30" t="s">
-        <v>632</v>
+      <c r="I80" s="38" t="s">
+        <v>667</v>
       </c>
       <c r="J80" s="30"/>
     </row>
@@ -9702,17 +9601,17 @@
         <v>21</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>689</v>
+        <v>651</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>690</v>
+        <v>652</v>
       </c>
       <c r="F81" s="42"/>
       <c r="G81" s="30" t="s">
         <v>648</v>
       </c>
-      <c r="I81" s="30" t="s">
-        <v>698</v>
+      <c r="I81" s="38" t="s">
+        <v>668</v>
       </c>
       <c r="J81" s="30"/>
     </row>
@@ -9721,17 +9620,17 @@
         <v>21</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>649</v>
+        <v>688</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>650</v>
+        <v>689</v>
       </c>
       <c r="F82" s="42"/>
       <c r="G82" s="30" t="s">
-        <v>648</v>
+        <v>61</v>
       </c>
       <c r="I82" s="38" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="J82" s="30"/>
     </row>
@@ -9740,440 +9639,347 @@
         <v>21</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>651</v>
+        <v>698</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>652</v>
+        <v>699</v>
       </c>
       <c r="F83" s="42"/>
       <c r="G83" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I83" s="38" t="s">
+        <v>690</v>
+      </c>
+      <c r="J83" s="30"/>
+    </row>
+    <row r="84" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="B84" s="34" t="s">
+        <v>697</v>
+      </c>
+      <c r="C84" s="34" t="s">
+        <v>674</v>
+      </c>
+      <c r="D84" s="34" t="s">
+        <v>674</v>
+      </c>
+      <c r="E84" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B85" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>675</v>
+      </c>
+      <c r="E85" s="30" t="s">
+        <v>676</v>
+      </c>
+      <c r="F85" s="42"/>
+      <c r="G85" s="30" t="s">
         <v>648</v>
       </c>
-      <c r="I83" s="38" t="s">
-        <v>672</v>
-      </c>
-      <c r="J83" s="30"/>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B84" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D84" s="30" t="s">
+      <c r="I85" s="30" t="s">
+        <v>691</v>
+      </c>
+      <c r="J85" s="30"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B86" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>678</v>
+      </c>
+      <c r="E86" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" s="42"/>
+      <c r="G86" s="30" t="s">
+        <v>648</v>
+      </c>
+      <c r="I86" s="30" t="s">
         <v>692</v>
       </c>
-      <c r="E84" s="30" t="s">
+      <c r="J86" s="30"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B87" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>680</v>
+      </c>
+      <c r="E87" s="30" t="s">
+        <v>681</v>
+      </c>
+      <c r="F87" s="42"/>
+      <c r="G87" s="30" t="s">
+        <v>648</v>
+      </c>
+      <c r="I87" s="30" t="s">
         <v>693</v>
       </c>
-      <c r="F84" s="42"/>
-      <c r="G84" s="30" t="s">
+      <c r="J87" s="30"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B88" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="30" t="s">
+        <v>683</v>
+      </c>
+      <c r="E88" s="30" t="s">
+        <v>684</v>
+      </c>
+      <c r="F88" s="42"/>
+      <c r="G88" s="30" t="s">
+        <v>648</v>
+      </c>
+      <c r="I88" s="30" t="s">
+        <v>632</v>
+      </c>
+      <c r="J88" s="30"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B89" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" s="30" t="s">
+        <v>685</v>
+      </c>
+      <c r="E89" s="30" t="s">
+        <v>686</v>
+      </c>
+      <c r="F89" s="42"/>
+      <c r="G89" s="30" t="s">
+        <v>648</v>
+      </c>
+      <c r="I89" s="30" t="s">
+        <v>694</v>
+      </c>
+      <c r="J89" s="30"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B90" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>649</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>650</v>
+      </c>
+      <c r="F90" s="42"/>
+      <c r="G90" s="30" t="s">
+        <v>648</v>
+      </c>
+      <c r="I90" s="38" t="s">
+        <v>667</v>
+      </c>
+      <c r="J90" s="30"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B91" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>651</v>
+      </c>
+      <c r="E91" s="30" t="s">
+        <v>652</v>
+      </c>
+      <c r="F91" s="42"/>
+      <c r="G91" s="30" t="s">
+        <v>648</v>
+      </c>
+      <c r="I91" s="38" t="s">
+        <v>668</v>
+      </c>
+      <c r="J91" s="30"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B92" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="30" t="s">
+        <v>688</v>
+      </c>
+      <c r="E92" s="30" t="s">
+        <v>689</v>
+      </c>
+      <c r="F92" s="42"/>
+      <c r="G92" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I84" s="38" t="s">
-        <v>699</v>
-      </c>
-      <c r="J84" s="30"/>
-    </row>
-    <row r="85" spans="1:18" s="50" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="34" t="b">
+      <c r="I92" s="38" t="s">
+        <v>695</v>
+      </c>
+      <c r="J92" s="30"/>
+    </row>
+    <row r="93" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="B93" s="46" t="s">
+        <v>185</v>
+      </c>
+      <c r="C93" s="46" t="s">
+        <v>637</v>
+      </c>
+      <c r="D93" s="46" t="s">
+        <v>637</v>
+      </c>
+      <c r="E93" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="49"/>
+      <c r="B94" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" s="30" t="s">
+        <v>638</v>
+      </c>
+      <c r="E94" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="F94" s="43"/>
+      <c r="G94" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H94" s="30" t="s">
+        <v>639</v>
+      </c>
+      <c r="I94" s="30">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-2</v>
+      </c>
+      <c r="L94" s="3">
+        <v>2</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <f>(L94-K94)/6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O94" s="3">
         <v>1</v>
       </c>
-      <c r="B85" s="50" t="s">
-        <v>738</v>
-      </c>
-      <c r="C85" s="50" t="s">
-        <v>739</v>
-      </c>
-      <c r="D85" s="50" t="s">
-        <v>739</v>
-      </c>
-      <c r="E85" s="50" t="s">
+      <c r="R94" s="30" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="49"/>
+      <c r="B95" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" s="30" t="s">
+        <v>640</v>
+      </c>
+      <c r="E95" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="F95" s="43"/>
+      <c r="G95" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H95" s="30" t="s">
+        <v>639</v>
+      </c>
+      <c r="I95" s="30">
+        <v>0</v>
+      </c>
+      <c r="K95" s="3">
+        <v>-2</v>
+      </c>
+      <c r="L95" s="3">
+        <v>2</v>
+      </c>
+      <c r="M95" s="3">
+        <v>0</v>
+      </c>
+      <c r="N95" s="3">
+        <f>(L95-K95)/6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O95" s="3">
+        <v>1</v>
+      </c>
+      <c r="R95" s="30" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A96" s="48"/>
+      <c r="B96" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="30" t="s">
+        <v>641</v>
+      </c>
+      <c r="E96" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="F96" s="42"/>
+      <c r="G96" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I96" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="1:18" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="34" t="b">
+        <v>1</v>
+      </c>
+      <c r="B97" s="47" t="s">
+        <v>873</v>
+      </c>
+      <c r="C97" s="47" t="s">
+        <v>873</v>
+      </c>
+      <c r="D97" s="47" t="s">
+        <v>873</v>
+      </c>
+      <c r="E97" s="46" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="51"/>
-      <c r="B86" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C86" s="51"/>
-      <c r="D86" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="E86" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="F86" s="42"/>
-      <c r="G86" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="H86" s="51"/>
-      <c r="I86" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="J86" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="K86" s="52"/>
-      <c r="L86" s="52"/>
-      <c r="M86" s="52"/>
-      <c r="N86" s="52"/>
-      <c r="O86" s="52"/>
-      <c r="Q86" s="54"/>
-    </row>
-    <row r="87" spans="1:18" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="55" t="s">
+      <c r="G97" s="47"/>
+      <c r="H97" s="47"/>
+      <c r="I97" s="47"/>
+      <c r="J97" s="47"/>
+      <c r="K97" s="47"/>
+      <c r="L97" s="47"/>
+    </row>
+    <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B98" s="30" t="s">
         <v>22</v>
-      </c>
-      <c r="D87" s="55" t="s">
-        <v>740</v>
-      </c>
-      <c r="E87" s="55" t="s">
-        <v>741</v>
-      </c>
-      <c r="F87" s="56"/>
-      <c r="G87" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="H87" s="55" t="s">
-        <v>636</v>
-      </c>
-      <c r="I87" s="57">
-        <v>0</v>
-      </c>
-      <c r="J87" s="58"/>
-      <c r="K87" s="59">
-        <v>-40</v>
-      </c>
-      <c r="L87" s="59">
-        <v>40</v>
-      </c>
-      <c r="M87" s="59">
-        <v>0</v>
-      </c>
-      <c r="N87" s="59">
-        <f>(L87-K87)/6</f>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="O87" s="59"/>
-      <c r="Q87" s="60"/>
-      <c r="R87" s="61" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" s="50" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="B88" s="50" t="s">
-        <v>742</v>
-      </c>
-      <c r="C88" s="50" t="s">
-        <v>743</v>
-      </c>
-      <c r="D88" s="50" t="s">
-        <v>743</v>
-      </c>
-      <c r="E88" s="50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" s="51" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D89" s="51" t="s">
-        <v>371</v>
-      </c>
-      <c r="E89" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="F89" s="42"/>
-      <c r="G89" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="I89" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="J89" s="51" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" s="61" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="D90" s="61" t="s">
-        <v>744</v>
-      </c>
-      <c r="E90" s="61" t="s">
-        <v>745</v>
-      </c>
-      <c r="F90" s="56"/>
-      <c r="G90" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="H90" s="61" t="s">
-        <v>636</v>
-      </c>
-      <c r="I90" s="57">
-        <v>0</v>
-      </c>
-      <c r="J90" s="62"/>
-      <c r="K90" s="63">
-        <v>-80</v>
-      </c>
-      <c r="L90" s="63">
-        <v>80</v>
-      </c>
-      <c r="M90" s="63">
-        <v>0</v>
-      </c>
-      <c r="N90" s="63">
-        <f>(L90-K90)/6</f>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="O90" s="63"/>
-      <c r="R90" s="61" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="B91" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="C91" s="46" t="s">
-        <v>637</v>
-      </c>
-      <c r="D91" s="46" t="s">
-        <v>637</v>
-      </c>
-      <c r="E91" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="49"/>
-      <c r="B92" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D92" s="30" t="s">
-        <v>638</v>
-      </c>
-      <c r="E92" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="F92" s="43"/>
-      <c r="G92" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H92" s="30" t="s">
-        <v>639</v>
-      </c>
-      <c r="I92" s="30">
-        <v>0</v>
-      </c>
-      <c r="K92" s="3">
-        <v>-2</v>
-      </c>
-      <c r="L92" s="3">
-        <v>2</v>
-      </c>
-      <c r="M92" s="3">
-        <v>0</v>
-      </c>
-      <c r="N92" s="3">
-        <f>(L92-K92)/6</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O92" s="3">
-        <v>1</v>
-      </c>
-      <c r="R92" s="30" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="49"/>
-      <c r="B93" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D93" s="30" t="s">
-        <v>640</v>
-      </c>
-      <c r="E93" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="F93" s="43"/>
-      <c r="G93" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H93" s="30" t="s">
-        <v>639</v>
-      </c>
-      <c r="I93" s="30">
-        <v>0</v>
-      </c>
-      <c r="K93" s="3">
-        <v>-2</v>
-      </c>
-      <c r="L93" s="3">
-        <v>2</v>
-      </c>
-      <c r="M93" s="3">
-        <v>0</v>
-      </c>
-      <c r="N93" s="3">
-        <f>(L93-K93)/6</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O93" s="3">
-        <v>1</v>
-      </c>
-      <c r="R93" s="30" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A94" s="48"/>
-      <c r="B94" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D94" s="30" t="s">
-        <v>641</v>
-      </c>
-      <c r="E94" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="F94" s="42"/>
-      <c r="G94" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I94" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
-      <c r="N94" s="3"/>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="1:18" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="B95" s="47" t="s">
-        <v>659</v>
-      </c>
-      <c r="C95" s="47" t="s">
-        <v>660</v>
-      </c>
-      <c r="D95" s="47" t="s">
-        <v>660</v>
-      </c>
-      <c r="E95" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="G95" s="47"/>
-      <c r="H95" s="47"/>
-      <c r="I95" s="47"/>
-      <c r="J95" s="47"/>
-      <c r="K95" s="47"/>
-      <c r="L95" s="47"/>
-    </row>
-    <row r="96" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B96" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C96" s="43"/>
-      <c r="D96" s="43" t="s">
-        <v>653</v>
-      </c>
-      <c r="E96" s="43" t="s">
-        <v>654</v>
-      </c>
-      <c r="F96" s="43"/>
-      <c r="G96" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="H96" s="43"/>
-      <c r="I96" s="43">
-        <v>1</v>
-      </c>
-      <c r="J96" s="43"/>
-      <c r="K96" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="L96" s="43">
-        <v>4.5</v>
-      </c>
-      <c r="M96" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="N96" s="30">
-        <f>1.5/6</f>
-        <v>0.25</v>
-      </c>
-      <c r="O96" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="R96" s="30" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="97" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="43"/>
-      <c r="B97" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C97" s="43"/>
-      <c r="D97" s="43" t="s">
-        <v>655</v>
-      </c>
-      <c r="E97" s="43" t="s">
-        <v>656</v>
-      </c>
-      <c r="F97" s="43"/>
-      <c r="G97" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="H97" s="43"/>
-      <c r="I97" s="43">
-        <v>1</v>
-      </c>
-      <c r="J97" s="43"/>
-      <c r="K97" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="L97" s="43">
-        <v>4.5</v>
-      </c>
-      <c r="M97" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="N97" s="43">
-        <v>0.25</v>
-      </c>
-      <c r="O97" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="R97" s="30" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="98" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="43"/>
-      <c r="B98" s="30" t="s">
-        <v>21</v>
       </c>
       <c r="C98" s="43"/>
       <c r="D98" s="43" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E98" s="43" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="F98" s="43"/>
       <c r="G98" s="43" t="s">
@@ -10184,60 +9990,78 @@
         <v>1</v>
       </c>
       <c r="J98" s="43"/>
-      <c r="K98" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="L98" s="43">
-        <v>3</v>
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3">
+        <v>2</v>
       </c>
       <c r="M98" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="N98" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="O98" s="3">
+        <v>1</v>
+      </c>
+      <c r="N98" s="30">
+        <f>(K98+L98)/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O98" s="43">
         <v>0.1</v>
       </c>
-      <c r="P98" s="3"/>
-      <c r="Q98" s="3"/>
       <c r="R98" s="30" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="99" spans="1:26" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="34" t="b">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="43"/>
+      <c r="B99" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43" t="s">
+        <v>655</v>
+      </c>
+      <c r="E99" s="43" t="s">
+        <v>656</v>
+      </c>
+      <c r="F99" s="43"/>
+      <c r="G99" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="H99" s="43"/>
+      <c r="I99" s="43">
         <v>1</v>
       </c>
-      <c r="B99" s="47" t="s">
-        <v>661</v>
-      </c>
-      <c r="C99" s="47" t="s">
-        <v>662</v>
-      </c>
-      <c r="D99" s="47" t="s">
-        <v>662</v>
-      </c>
-      <c r="E99" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="G99" s="47"/>
-      <c r="H99" s="47"/>
-      <c r="I99" s="47"/>
-      <c r="J99" s="47"/>
-      <c r="K99" s="47"/>
-      <c r="L99" s="47"/>
-    </row>
-    <row r="100" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J99" s="43"/>
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3">
+        <v>2</v>
+      </c>
+      <c r="M99" s="3">
+        <v>1</v>
+      </c>
+      <c r="N99" s="30">
+        <f>(K99+L99)/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O99" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="R99" s="30" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="43"/>
       <c r="B100" s="30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C100" s="43"/>
       <c r="D100" s="43" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="E100" s="43" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="F100" s="43"/>
       <c r="G100" s="43" t="s">
@@ -10248,77 +10072,61 @@
         <v>1</v>
       </c>
       <c r="J100" s="43"/>
-      <c r="K100" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="L100" s="43">
-        <v>4</v>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>2</v>
       </c>
       <c r="M100" s="3">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="N100" s="30">
-        <f>1.5/6</f>
-        <v>0.25</v>
-      </c>
-      <c r="O100" s="43">
+        <f>(K100+L100)/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O100" s="3">
         <v>0.1</v>
       </c>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
       <c r="R100" s="30" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="101" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="43"/>
-      <c r="B101" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C101" s="43"/>
-      <c r="D101" s="43" t="s">
-        <v>664</v>
-      </c>
-      <c r="E101" s="43" t="s">
-        <v>656</v>
-      </c>
-      <c r="F101" s="43"/>
-      <c r="G101" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="H101" s="43"/>
-      <c r="I101" s="43">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="46" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="J101" s="43"/>
-      <c r="K101" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="L101" s="43">
-        <v>4</v>
-      </c>
-      <c r="M101" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="N101" s="43">
-        <v>0.25</v>
-      </c>
-      <c r="O101" s="43">
-        <v>0.1</v>
-      </c>
-      <c r="R101" s="30" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="102" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="43"/>
+      <c r="B101" s="47" t="s">
+        <v>872</v>
+      </c>
+      <c r="C101" s="47" t="s">
+        <v>872</v>
+      </c>
+      <c r="D101" s="47" t="s">
+        <v>872</v>
+      </c>
+      <c r="E101" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="G101" s="47"/>
+      <c r="H101" s="47"/>
+      <c r="I101" s="47"/>
+      <c r="J101" s="47"/>
+      <c r="K101" s="47"/>
+      <c r="L101" s="47"/>
+    </row>
+    <row r="102" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B102" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C102" s="43"/>
       <c r="D102" s="43" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="E102" s="43" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="F102" s="43"/>
       <c r="G102" s="43" t="s">
@@ -10329,1015 +10137,304 @@
         <v>1</v>
       </c>
       <c r="J102" s="43"/>
-      <c r="K102" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="L102" s="43">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>2</v>
       </c>
       <c r="M102" s="3">
-        <v>1.75</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="O102" s="3">
+        <v>1</v>
+      </c>
+      <c r="N102" s="30">
+        <f>(K102+L102)/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O102" s="43">
         <v>0.1</v>
       </c>
-      <c r="P102" s="3"/>
-      <c r="Q102" s="3"/>
       <c r="R102" s="30" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="103" spans="1:26" s="66" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="64" t="b">
-        <v>0</v>
-      </c>
-      <c r="B103" s="64" t="s">
-        <v>746</v>
-      </c>
-      <c r="C103" s="64" t="s">
-        <v>747</v>
-      </c>
-      <c r="D103" s="64" t="s">
-        <v>748</v>
-      </c>
-      <c r="E103" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="F103" s="64"/>
-      <c r="G103" s="64"/>
-      <c r="H103" s="64"/>
-      <c r="I103" s="64"/>
-      <c r="J103" s="64"/>
-      <c r="K103" s="65"/>
-      <c r="L103" s="65"/>
-      <c r="M103" s="65"/>
-      <c r="N103" s="65"/>
-      <c r="O103" s="65"/>
-      <c r="P103" s="65"/>
-      <c r="Q103" s="65"/>
-      <c r="R103" s="64"/>
-      <c r="S103" s="64"/>
-      <c r="T103" s="64"/>
-      <c r="U103" s="64"/>
-      <c r="V103" s="64"/>
-      <c r="W103" s="64"/>
-      <c r="X103" s="64"/>
-      <c r="Y103" s="64"/>
-      <c r="Z103" s="64"/>
-    </row>
-    <row r="104" spans="1:26" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D104" s="55" t="s">
-        <v>749</v>
-      </c>
-      <c r="E104" s="55" t="s">
-        <v>750</v>
-      </c>
-      <c r="G104" s="55" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="43"/>
+      <c r="B103" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" s="43"/>
+      <c r="D103" s="43" t="s">
+        <v>660</v>
+      </c>
+      <c r="E103" s="43" t="s">
+        <v>656</v>
+      </c>
+      <c r="F103" s="43"/>
+      <c r="G103" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="I104" s="57">
-        <v>2.6621832043897302</v>
-      </c>
-      <c r="K104" s="55">
-        <v>2.5</v>
-      </c>
-      <c r="L104" s="55">
-        <v>2.8</v>
-      </c>
-      <c r="M104" s="55">
-        <v>2.8</v>
-      </c>
-      <c r="N104" s="63">
-        <f>(L104-K104)/6</f>
-        <v>4.9999999999999968E-2</v>
-      </c>
-      <c r="R104" s="61" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="105" spans="1:26" s="66" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="64" t="b">
-        <v>0</v>
-      </c>
-      <c r="B105" s="64" t="s">
-        <v>751</v>
-      </c>
-      <c r="C105" s="64" t="s">
-        <v>752</v>
-      </c>
-      <c r="D105" s="64" t="s">
-        <v>753</v>
-      </c>
-      <c r="E105" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="F105" s="64"/>
-      <c r="G105" s="64"/>
-      <c r="H105" s="64"/>
-      <c r="I105" s="64"/>
-      <c r="J105" s="64"/>
-      <c r="K105" s="65"/>
-      <c r="L105" s="65"/>
-      <c r="M105" s="65"/>
-      <c r="N105" s="65"/>
-      <c r="O105" s="65"/>
-      <c r="P105" s="65"/>
-      <c r="Q105" s="65"/>
-      <c r="R105" s="64"/>
-      <c r="S105" s="64"/>
-      <c r="T105" s="64"/>
-      <c r="U105" s="64"/>
-      <c r="V105" s="64"/>
-      <c r="W105" s="64"/>
-      <c r="X105" s="64"/>
-      <c r="Y105" s="64"/>
-      <c r="Z105" s="64"/>
-    </row>
-    <row r="106" spans="1:26" s="51" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="37"/>
-      <c r="B106" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D106" s="37" t="s">
-        <v>754</v>
-      </c>
-      <c r="E106" s="37" t="s">
-        <v>755</v>
-      </c>
-      <c r="F106" s="37"/>
-      <c r="G106" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="H106" s="37"/>
-      <c r="I106" s="37" t="s">
-        <v>756</v>
-      </c>
-      <c r="J106" s="37"/>
-      <c r="K106" s="37"/>
-      <c r="L106" s="37"/>
-      <c r="M106" s="37"/>
-      <c r="N106" s="37"/>
-      <c r="O106" s="37"/>
-      <c r="P106" s="37"/>
-      <c r="Q106" s="37"/>
-      <c r="R106" s="37"/>
-      <c r="S106" s="37"/>
-      <c r="T106" s="37"/>
-      <c r="U106" s="37"/>
-      <c r="V106" s="37"/>
-      <c r="W106" s="37"/>
-      <c r="X106" s="37"/>
-      <c r="Y106" s="37"/>
-      <c r="Z106" s="37"/>
-    </row>
-    <row r="107" spans="1:26" s="53" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="42"/>
-      <c r="B107" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C107" s="42"/>
-      <c r="D107" s="42" t="s">
-        <v>757</v>
-      </c>
-      <c r="E107" s="42" t="s">
-        <v>758</v>
-      </c>
-      <c r="F107" s="42"/>
-      <c r="G107" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="H107" s="42"/>
-      <c r="I107" s="42" t="s">
-        <v>759</v>
-      </c>
-      <c r="J107" s="42"/>
-      <c r="K107" s="42"/>
-      <c r="L107" s="42"/>
-      <c r="M107" s="42"/>
-      <c r="N107" s="42"/>
-      <c r="O107" s="67"/>
-      <c r="P107" s="42"/>
-      <c r="Q107" s="67"/>
-      <c r="R107" s="42"/>
-      <c r="S107" s="42"/>
-      <c r="T107" s="42"/>
-      <c r="U107" s="42"/>
-      <c r="V107" s="42"/>
-      <c r="W107" s="42"/>
-      <c r="X107" s="42"/>
-      <c r="Y107" s="42"/>
-      <c r="Z107" s="42"/>
-    </row>
-    <row r="108" spans="1:26" s="61" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="56"/>
-      <c r="B108" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="C108" s="56"/>
-      <c r="D108" s="56" t="s">
-        <v>760</v>
-      </c>
-      <c r="E108" s="56" t="s">
-        <v>761</v>
-      </c>
-      <c r="F108" s="56"/>
-      <c r="G108" s="56" t="s">
+      <c r="H103" s="43"/>
+      <c r="I103" s="43">
+        <v>1</v>
+      </c>
+      <c r="J103" s="43"/>
+      <c r="K103" s="3">
+        <v>0</v>
+      </c>
+      <c r="L103" s="3">
+        <v>2</v>
+      </c>
+      <c r="M103" s="3">
+        <v>1</v>
+      </c>
+      <c r="N103" s="30">
+        <f>(K103+L103)/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O103" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="R103" s="30" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="43"/>
+      <c r="B104" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43" t="s">
+        <v>661</v>
+      </c>
+      <c r="E104" s="43" t="s">
+        <v>658</v>
+      </c>
+      <c r="F104" s="43"/>
+      <c r="G104" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H108" s="56"/>
-      <c r="I108" s="57">
-        <v>1.8027584733927899</v>
-      </c>
-      <c r="J108" s="56"/>
-      <c r="K108" s="56">
-        <v>0.01</v>
-      </c>
-      <c r="L108" s="56">
-        <v>5</v>
-      </c>
-      <c r="M108" s="56">
+      <c r="H104" s="43"/>
+      <c r="I104" s="43">
         <v>1</v>
       </c>
-      <c r="N108" s="63">
-        <f>(L108-K108)/6</f>
-        <v>0.83166666666666667</v>
-      </c>
-      <c r="O108" s="56"/>
-      <c r="P108" s="56"/>
-      <c r="Q108" s="56"/>
-      <c r="R108" s="61" t="s">
-        <v>705</v>
-      </c>
-      <c r="S108" s="56"/>
-      <c r="T108" s="56"/>
-      <c r="U108" s="56"/>
-      <c r="V108" s="56"/>
-      <c r="W108" s="56"/>
-      <c r="X108" s="56"/>
-      <c r="Y108" s="56"/>
-      <c r="Z108" s="56"/>
-    </row>
-    <row r="109" spans="1:26" s="66" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="64" t="b">
-        <v>0</v>
-      </c>
-      <c r="B109" s="64" t="s">
-        <v>762</v>
-      </c>
-      <c r="C109" s="64" t="s">
-        <v>763</v>
-      </c>
-      <c r="D109" s="64" t="s">
-        <v>764</v>
-      </c>
-      <c r="E109" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="F109" s="64"/>
-      <c r="G109" s="64"/>
-      <c r="H109" s="64"/>
-      <c r="I109" s="64"/>
-      <c r="J109" s="64"/>
-      <c r="K109" s="65"/>
-      <c r="L109" s="65"/>
-      <c r="M109" s="65"/>
-      <c r="N109" s="65"/>
-      <c r="O109" s="65"/>
-      <c r="P109" s="65"/>
-      <c r="Q109" s="65"/>
-      <c r="R109" s="64"/>
-      <c r="S109" s="64"/>
-      <c r="T109" s="64"/>
-      <c r="U109" s="64"/>
-      <c r="V109" s="64"/>
-      <c r="W109" s="64"/>
-      <c r="X109" s="64"/>
-      <c r="Y109" s="64"/>
-      <c r="Z109" s="64"/>
-    </row>
-    <row r="110" spans="1:26" s="68" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="D110" s="68" t="s">
-        <v>765</v>
-      </c>
-      <c r="E110" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="G110" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="I110" s="68" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="111" spans="1:26" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D111" s="55" t="s">
-        <v>767</v>
-      </c>
-      <c r="E111" s="55" t="s">
-        <v>768</v>
-      </c>
-      <c r="G111" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="I111" s="57">
-        <v>0.40422159884852599</v>
-      </c>
-      <c r="K111" s="55">
-        <v>0.4</v>
-      </c>
-      <c r="L111" s="55">
-        <v>0.6</v>
-      </c>
-      <c r="M111" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="N111" s="63">
-        <f>(L111-K111)/6</f>
-        <v>3.3333333333333326E-2</v>
-      </c>
-      <c r="R111" s="61" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="112" spans="1:26" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D112" s="55" t="s">
-        <v>769</v>
-      </c>
-      <c r="E112" s="55" t="s">
-        <v>770</v>
-      </c>
-      <c r="G112" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="I112" s="57">
-        <v>1464.4753894078101</v>
-      </c>
-      <c r="K112" s="55">
-        <v>1300</v>
-      </c>
-      <c r="L112" s="55">
-        <v>1500</v>
-      </c>
-      <c r="M112" s="55">
-        <v>1400</v>
-      </c>
-      <c r="N112" s="63">
-        <f>(L112-K112)/6</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="R112" s="61" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="113" spans="1:26" s="68" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="D113" s="68" t="s">
-        <v>771</v>
-      </c>
-      <c r="E113" s="68" t="s">
-        <v>772</v>
-      </c>
-      <c r="G113" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="I113" s="68">
-        <v>0.9</v>
-      </c>
-      <c r="K113" s="68">
-        <v>0.8</v>
-      </c>
-      <c r="L113" s="68">
-        <v>0.95</v>
-      </c>
-      <c r="M113" s="68">
-        <v>0.9</v>
-      </c>
-      <c r="N113" s="52">
-        <f>(L113-K113)/6</f>
-        <v>2.4999999999999984E-2</v>
-      </c>
-      <c r="R113" s="53" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="114" spans="1:26" s="68" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="D114" s="68" t="s">
-        <v>773</v>
-      </c>
-      <c r="E114" s="68" t="s">
-        <v>774</v>
-      </c>
-      <c r="G114" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="I114" s="68">
-        <v>0.5</v>
-      </c>
-      <c r="K114" s="68">
-        <v>0.7</v>
-      </c>
-      <c r="L114" s="68">
-        <v>0.9</v>
-      </c>
-      <c r="M114" s="68">
-        <v>0.85</v>
-      </c>
-      <c r="N114" s="52">
-        <f t="shared" ref="N114:N117" si="0">(L114-K114)/6</f>
-        <v>3.3333333333333347E-2</v>
-      </c>
-      <c r="R114" s="53" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="115" spans="1:26" s="68" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="D115" s="68" t="s">
-        <v>775</v>
-      </c>
-      <c r="E115" s="68" t="s">
-        <v>776</v>
-      </c>
-      <c r="G115" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="I115" s="68">
-        <v>0.5</v>
-      </c>
-      <c r="K115" s="68">
-        <v>0.7</v>
-      </c>
-      <c r="L115" s="68">
-        <v>0.9</v>
-      </c>
-      <c r="M115" s="68">
-        <v>0.85</v>
-      </c>
-      <c r="N115" s="52">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333347E-2</v>
-      </c>
-      <c r="R115" s="53" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="116" spans="1:26" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D116" s="55" t="s">
-        <v>777</v>
-      </c>
-      <c r="E116" s="55" t="s">
-        <v>778</v>
-      </c>
-      <c r="G116" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="I116" s="57">
-        <v>1.2488810889317401</v>
-      </c>
-      <c r="K116" s="55">
-        <v>1.2</v>
-      </c>
-      <c r="L116" s="55">
-        <v>1.3</v>
-      </c>
-      <c r="M116" s="55">
-        <v>1.27</v>
-      </c>
-      <c r="N116" s="63">
-        <f t="shared" si="0"/>
-        <v>1.666666666666668E-2</v>
-      </c>
-      <c r="R116" s="61" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="117" spans="1:26" s="68" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="D117" s="68" t="s">
-        <v>779</v>
-      </c>
-      <c r="E117" s="68" t="s">
-        <v>780</v>
-      </c>
-      <c r="G117" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="I117" s="68">
-        <v>840</v>
-      </c>
-      <c r="K117" s="68">
-        <v>400</v>
-      </c>
-      <c r="L117" s="68">
-        <v>550</v>
-      </c>
-      <c r="M117" s="68">
-        <v>500</v>
-      </c>
-      <c r="N117" s="52">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="R117" s="53" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="118" spans="1:26" s="66" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="64" t="b">
-        <v>0</v>
-      </c>
-      <c r="B118" s="64" t="s">
-        <v>781</v>
-      </c>
-      <c r="C118" s="64" t="s">
-        <v>763</v>
-      </c>
-      <c r="D118" s="64" t="s">
-        <v>764</v>
-      </c>
-      <c r="E118" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="F118" s="64"/>
-      <c r="G118" s="64"/>
-      <c r="H118" s="64"/>
-      <c r="I118" s="64"/>
-      <c r="J118" s="64"/>
-      <c r="K118" s="65"/>
-      <c r="L118" s="65"/>
-      <c r="M118" s="65"/>
-      <c r="N118" s="65"/>
-      <c r="O118" s="65"/>
-      <c r="P118" s="65"/>
-      <c r="Q118" s="65"/>
-      <c r="R118" s="64"/>
-      <c r="S118" s="64"/>
-      <c r="T118" s="64"/>
-      <c r="U118" s="64"/>
-      <c r="V118" s="64"/>
-      <c r="W118" s="64"/>
-      <c r="X118" s="64"/>
-      <c r="Y118" s="64"/>
-      <c r="Z118" s="64"/>
-    </row>
-    <row r="119" spans="1:26" s="68" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="D119" s="68" t="s">
-        <v>765</v>
-      </c>
-      <c r="E119" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="G119" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="I119" s="68" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="120" spans="1:26" s="68" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B120" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="D120" s="68" t="s">
-        <v>783</v>
-      </c>
-      <c r="E120" s="68" t="s">
-        <v>768</v>
-      </c>
-      <c r="G120" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="I120" s="69">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="J120" s="55"/>
-      <c r="K120" s="55">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="L120" s="55">
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="M120" s="55">
-        <v>2.5399999999999999E-2</v>
-      </c>
-      <c r="N120" s="63">
-        <f>(L120-K120)/6</f>
-        <v>4.1666666666666702E-4</v>
-      </c>
-      <c r="R120" s="53" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="121" spans="1:26" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D121" s="55" t="s">
-        <v>784</v>
-      </c>
-      <c r="E121" s="55" t="s">
-        <v>770</v>
-      </c>
-      <c r="G121" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="I121" s="57">
-        <v>7294.8533754616701</v>
-      </c>
-      <c r="K121" s="55">
-        <v>7250</v>
-      </c>
-      <c r="L121" s="55">
-        <v>7300</v>
-      </c>
-      <c r="M121" s="55">
-        <v>7275</v>
-      </c>
-      <c r="N121" s="63">
-        <f>(L121-K121)/6</f>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="R121" s="61" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="122" spans="1:26" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D122" s="55" t="s">
-        <v>785</v>
-      </c>
-      <c r="E122" s="55" t="s">
-        <v>772</v>
-      </c>
-      <c r="G122" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="I122" s="57">
-        <v>0.85848069081459</v>
-      </c>
-      <c r="K122" s="55">
-        <v>0.84</v>
-      </c>
-      <c r="L122" s="55">
-        <v>0.87</v>
-      </c>
-      <c r="M122" s="55">
-        <v>0.86</v>
-      </c>
-      <c r="N122" s="63">
-        <f>(L122-K122)/6</f>
-        <v>5.0000000000000044E-3</v>
-      </c>
-      <c r="R122" s="61" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="123" spans="1:26" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D123" s="55" t="s">
-        <v>786</v>
-      </c>
-      <c r="E123" s="55" t="s">
-        <v>774</v>
-      </c>
-      <c r="G123" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="I123" s="57">
-        <v>0.77716886546211705</v>
-      </c>
-      <c r="K123" s="55">
-        <v>0.74</v>
-      </c>
-      <c r="L123" s="55">
-        <v>0.78</v>
-      </c>
-      <c r="M123" s="55">
-        <v>0.76</v>
-      </c>
-      <c r="N123" s="63">
-        <f t="shared" ref="N123:N126" si="1">(L123-K123)/6</f>
-        <v>6.6666666666666723E-3</v>
-      </c>
-      <c r="R123" s="61" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="124" spans="1:26" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D124" s="55" t="s">
-        <v>787</v>
-      </c>
-      <c r="E124" s="55" t="s">
-        <v>776</v>
-      </c>
-      <c r="G124" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="I124" s="57">
-        <v>0.80297909112105803</v>
-      </c>
-      <c r="K124" s="55">
-        <v>0.78</v>
-      </c>
-      <c r="L124" s="55">
-        <v>0.82</v>
-      </c>
-      <c r="M124" s="55">
-        <v>0.81</v>
-      </c>
-      <c r="N124" s="63">
-        <f t="shared" si="1"/>
-        <v>6.6666666666666541E-3</v>
-      </c>
-      <c r="R124" s="61" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="125" spans="1:26" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D125" s="55" t="s">
-        <v>788</v>
-      </c>
-      <c r="E125" s="55" t="s">
-        <v>778</v>
-      </c>
-      <c r="G125" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="I125" s="57">
-        <v>22.517275426502</v>
-      </c>
-      <c r="K125" s="55">
-        <v>22</v>
-      </c>
-      <c r="L125" s="55">
-        <v>24</v>
-      </c>
-      <c r="M125" s="55">
-        <v>22.75</v>
-      </c>
-      <c r="N125" s="63">
-        <f t="shared" si="1"/>
+      <c r="J104" s="43"/>
+      <c r="K104" s="3">
+        <v>0</v>
+      </c>
+      <c r="L104" s="3">
+        <v>2</v>
+      </c>
+      <c r="M104" s="3">
+        <v>1</v>
+      </c>
+      <c r="N104" s="30">
+        <f>(K104+L104)/6</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="R125" s="61" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="126" spans="1:26" s="68" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="D126" s="68" t="s">
-        <v>789</v>
-      </c>
-      <c r="E126" s="68" t="s">
-        <v>780</v>
-      </c>
-      <c r="G126" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="I126" s="68">
-        <v>500</v>
-      </c>
-      <c r="K126" s="68">
-        <v>400</v>
-      </c>
-      <c r="L126" s="68">
-        <v>550</v>
-      </c>
-      <c r="M126" s="68">
-        <v>500</v>
-      </c>
-      <c r="N126" s="52">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="R126" s="53" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="127" spans="1:26" s="66" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="64" t="b">
-        <v>0</v>
-      </c>
-      <c r="B127" s="64" t="s">
-        <v>790</v>
-      </c>
-      <c r="C127" s="64" t="s">
-        <v>791</v>
-      </c>
-      <c r="D127" s="64" t="s">
-        <v>792</v>
-      </c>
-      <c r="E127" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="F127" s="64"/>
-      <c r="G127" s="64"/>
-      <c r="H127" s="64"/>
-      <c r="I127" s="64"/>
-      <c r="J127" s="64"/>
-      <c r="K127" s="65"/>
-      <c r="L127" s="65"/>
-      <c r="M127" s="65"/>
-      <c r="N127" s="65"/>
-      <c r="O127" s="65"/>
-      <c r="P127" s="65"/>
-      <c r="Q127" s="65"/>
-      <c r="R127" s="64"/>
-      <c r="S127" s="64"/>
-      <c r="T127" s="64"/>
-      <c r="U127" s="64"/>
-      <c r="V127" s="64"/>
-      <c r="W127" s="64"/>
-      <c r="X127" s="64"/>
-      <c r="Y127" s="64"/>
-      <c r="Z127" s="64"/>
-    </row>
-    <row r="128" spans="1:26" s="68" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="D128" s="68" t="s">
-        <v>765</v>
-      </c>
-      <c r="E128" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="G128" s="68" t="s">
-        <v>102</v>
-      </c>
-      <c r="I128" s="68" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" s="55" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D129" s="55" t="s">
-        <v>793</v>
-      </c>
-      <c r="E129" s="55" t="s">
-        <v>794</v>
-      </c>
-      <c r="G129" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="I129" s="57">
-        <v>66.726590182616405</v>
-      </c>
-      <c r="K129" s="55">
-        <v>50</v>
-      </c>
-      <c r="L129" s="55">
-        <v>110</v>
-      </c>
-      <c r="M129" s="55">
-        <v>60</v>
-      </c>
-      <c r="N129" s="63">
-        <f>(L129-K129)/6</f>
-        <v>10</v>
-      </c>
-      <c r="R129" s="61" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="34" t="b">
+      <c r="O104" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
+      <c r="R104" s="30" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="B130" s="34" t="s">
-        <v>708</v>
-      </c>
-      <c r="C130" s="34" t="s">
-        <v>707</v>
-      </c>
-      <c r="D130" s="34" t="s">
-        <v>707</v>
-      </c>
-      <c r="E130" s="34" t="s">
+      <c r="B105" s="34" t="s">
+        <v>704</v>
+      </c>
+      <c r="C105" s="34" t="s">
+        <v>703</v>
+      </c>
+      <c r="D105" s="34" t="s">
+        <v>703</v>
+      </c>
+      <c r="E105" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="H130" s="35"/>
-      <c r="I130" s="35"/>
-    </row>
-    <row r="131" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="34" t="b">
+      <c r="H105" s="35"/>
+      <c r="I105" s="35"/>
+    </row>
+    <row r="106" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="B131" s="34" t="s">
-        <v>736</v>
-      </c>
-      <c r="C131" s="34" t="s">
-        <v>736</v>
-      </c>
-      <c r="D131" s="34" t="s">
-        <v>737</v>
-      </c>
-      <c r="E131" s="34" t="s">
+      <c r="B106" s="34" t="s">
+        <v>714</v>
+      </c>
+      <c r="C106" s="34" t="s">
+        <v>714</v>
+      </c>
+      <c r="D106" s="34" t="s">
+        <v>715</v>
+      </c>
+      <c r="E106" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="I131" s="45"/>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F132" s="37"/>
+      <c r="I106" s="45"/>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F107" s="37"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="30"/>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F108" s="37"/>
+      <c r="I108" s="30"/>
+      <c r="J108" s="30"/>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F109" s="37"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="30"/>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F110" s="37"/>
+      <c r="I110" s="30"/>
+      <c r="J110" s="30"/>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F111" s="37"/>
+      <c r="I111" s="30"/>
+      <c r="J111" s="30"/>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F112" s="37"/>
+      <c r="I112" s="30"/>
+      <c r="J112" s="30"/>
+    </row>
+    <row r="113" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F113" s="37"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="30"/>
+    </row>
+    <row r="114" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F114" s="37"/>
+      <c r="I114" s="30"/>
+      <c r="J114" s="30"/>
+    </row>
+    <row r="115" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="I115" s="30"/>
+      <c r="J115" s="30"/>
+    </row>
+    <row r="116" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="I116" s="30"/>
+      <c r="J116" s="30"/>
+    </row>
+    <row r="117" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="I117" s="30"/>
+      <c r="J117" s="30"/>
+    </row>
+    <row r="118" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="I118" s="30"/>
+      <c r="J118" s="30"/>
+    </row>
+    <row r="119" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="I119" s="30"/>
+      <c r="J119" s="30"/>
+    </row>
+    <row r="120" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="I120" s="30"/>
+      <c r="J120" s="30"/>
+    </row>
+    <row r="121" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="I121" s="30"/>
+      <c r="J121" s="30"/>
+    </row>
+    <row r="122" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="I122" s="30"/>
+      <c r="J122" s="30"/>
+    </row>
+    <row r="123" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="I123" s="30"/>
+      <c r="J123" s="30"/>
+    </row>
+    <row r="124" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="I124" s="30"/>
+      <c r="J124" s="30"/>
+    </row>
+    <row r="125" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="I125" s="30"/>
+      <c r="J125" s="30"/>
+    </row>
+    <row r="126" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="I126" s="30"/>
+      <c r="J126" s="30"/>
+    </row>
+    <row r="127" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="I127" s="30"/>
+      <c r="J127" s="30"/>
+    </row>
+    <row r="128" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="I128" s="30"/>
+      <c r="J128" s="30"/>
+    </row>
+    <row r="129" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I129" s="30"/>
+      <c r="J129" s="30"/>
+    </row>
+    <row r="130" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I130" s="30"/>
+      <c r="J130" s="30"/>
+    </row>
+    <row r="131" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I131" s="30"/>
+      <c r="J131" s="30"/>
+    </row>
+    <row r="132" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I132" s="30"/>
       <c r="J132" s="30"/>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F133" s="37"/>
+    <row r="133" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I133" s="30"/>
       <c r="J133" s="30"/>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F134" s="37"/>
+    <row r="134" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I134" s="30"/>
       <c r="J134" s="30"/>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F135" s="37"/>
+    <row r="135" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I135" s="30"/>
       <c r="J135" s="30"/>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F136" s="37"/>
+    <row r="136" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I136" s="30"/>
       <c r="J136" s="30"/>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F137" s="37"/>
+    <row r="137" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I137" s="30"/>
       <c r="J137" s="30"/>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F138" s="37"/>
+    <row r="138" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I138" s="30"/>
       <c r="J138" s="30"/>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F139" s="37"/>
+    <row r="139" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I139" s="30"/>
       <c r="J139" s="30"/>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="140" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I140" s="30"/>
       <c r="J140" s="30"/>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="141" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I141" s="30"/>
       <c r="J141" s="30"/>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="142" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I142" s="30"/>
       <c r="J142" s="30"/>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="143" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I143" s="30"/>
       <c r="J143" s="30"/>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="144" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I144" s="30"/>
       <c r="J144" s="30"/>
     </row>
@@ -11573,108 +10670,8 @@
       <c r="I202" s="30"/>
       <c r="J202" s="30"/>
     </row>
-    <row r="203" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I203" s="30"/>
-      <c r="J203" s="30"/>
-    </row>
-    <row r="204" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I204" s="30"/>
-      <c r="J204" s="30"/>
-    </row>
-    <row r="205" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I205" s="30"/>
-      <c r="J205" s="30"/>
-    </row>
-    <row r="206" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I206" s="30"/>
-      <c r="J206" s="30"/>
-    </row>
-    <row r="207" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I207" s="30"/>
-      <c r="J207" s="30"/>
-    </row>
-    <row r="208" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I208" s="30"/>
-      <c r="J208" s="30"/>
-    </row>
-    <row r="209" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I209" s="30"/>
-      <c r="J209" s="30"/>
-    </row>
-    <row r="210" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I210" s="30"/>
-      <c r="J210" s="30"/>
-    </row>
-    <row r="211" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I211" s="30"/>
-      <c r="J211" s="30"/>
-    </row>
-    <row r="212" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I212" s="30"/>
-      <c r="J212" s="30"/>
-    </row>
-    <row r="213" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I213" s="30"/>
-      <c r="J213" s="30"/>
-    </row>
-    <row r="214" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I214" s="30"/>
-      <c r="J214" s="30"/>
-    </row>
-    <row r="215" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I215" s="30"/>
-      <c r="J215" s="30"/>
-    </row>
-    <row r="216" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I216" s="30"/>
-      <c r="J216" s="30"/>
-    </row>
-    <row r="217" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I217" s="30"/>
-      <c r="J217" s="30"/>
-    </row>
-    <row r="218" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I218" s="30"/>
-      <c r="J218" s="30"/>
-    </row>
-    <row r="219" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I219" s="30"/>
-      <c r="J219" s="30"/>
-    </row>
-    <row r="220" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I220" s="30"/>
-      <c r="J220" s="30"/>
-    </row>
-    <row r="221" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I221" s="30"/>
-      <c r="J221" s="30"/>
-    </row>
-    <row r="222" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I222" s="30"/>
-      <c r="J222" s="30"/>
-    </row>
-    <row r="223" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I223" s="30"/>
-      <c r="J223" s="30"/>
-    </row>
-    <row r="224" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I224" s="30"/>
-      <c r="J224" s="30"/>
-    </row>
-    <row r="225" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I225" s="30"/>
-      <c r="J225" s="30"/>
-    </row>
-    <row r="226" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I226" s="30"/>
-      <c r="J226" s="30"/>
-    </row>
-    <row r="227" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I227" s="30"/>
-      <c r="J227" s="30"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:AA154"/>
+  <autoFilter ref="A2:AA129"/>
   <mergeCells count="1">
     <mergeCell ref="U1:Z1"/>
   </mergeCells>
@@ -11692,9 +10689,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11733,7 +10730,7 @@
         <v>457</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>622</v>
@@ -11771,7 +10768,7 @@
         <v>618</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>623</v>
@@ -11807,17 +10804,17 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="37" t="s">
-        <v>722</v>
+        <v>888</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>62</v>
@@ -11838,14 +10835,14 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="37" t="s">
-        <v>725</v>
+        <v>889</v>
       </c>
       <c r="E5" s="37" t="s">
         <v>630</v>
@@ -11869,17 +10866,17 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="37" t="s">
-        <v>727</v>
+        <v>890</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>62</v>
@@ -11900,15 +10897,15 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
-        <v>729</v>
+        <v>710</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="37"/>
       <c r="D7" s="37" t="s">
-        <v>730</v>
+        <v>891</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>62</v>
@@ -11929,15 +10926,15 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="37"/>
       <c r="D8" s="37" t="s">
-        <v>733</v>
+        <v>892</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="F8" s="37" t="s">
         <v>62</v>
@@ -11958,15 +10955,15 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
-        <v>734</v>
+        <v>713</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="37"/>
       <c r="D9" s="37" t="s">
-        <v>735</v>
+        <v>887</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="F9" s="37" t="s">
         <v>62</v>
@@ -11992,7 +10989,7 @@
       <c r="B10" s="37"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>709</v>
+        <v>875</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>630</v>
@@ -12021,7 +11018,7 @@
       <c r="B11" s="37"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>710</v>
+        <v>876</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>632</v>
@@ -12050,7 +11047,7 @@
       <c r="B12" s="37"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>711</v>
+        <v>877</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>636</v>
@@ -12078,7 +11075,7 @@
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>712</v>
+        <v>878</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>636</v>
@@ -12106,7 +11103,7 @@
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>713</v>
+        <v>879</v>
       </c>
       <c r="E14" s="29" t="s">
         <v>636</v>
@@ -12134,7 +11131,7 @@
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>714</v>
+        <v>880</v>
       </c>
       <c r="E15" s="29" t="s">
         <v>636</v>
@@ -12162,7 +11159,7 @@
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>715</v>
+        <v>881</v>
       </c>
       <c r="E16" s="29" t="s">
         <v>636</v>
@@ -12190,7 +11187,7 @@
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
       <c r="D17" s="29" t="s">
-        <v>716</v>
+        <v>882</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>636</v>
@@ -12213,12 +11210,12 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29" t="s">
-        <v>717</v>
+        <v>883</v>
       </c>
       <c r="E18" s="29"/>
       <c r="F18" s="30" t="s">
@@ -12236,12 +11233,12 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="29" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
       <c r="D19" s="29" t="s">
-        <v>718</v>
+        <v>884</v>
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="30" t="s">
@@ -12259,12 +11256,12 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29" t="s">
-        <v>719</v>
+        <v>885</v>
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="30" t="s">
@@ -12282,11 +11279,11 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B21" s="29"/>
       <c r="D21" s="29" t="s">
-        <v>720</v>
+        <v>886</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>62</v>
